--- a/data/station.xlsx
+++ b/data/station.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,25 +360,30 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Location_zh</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Station_zh</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Station</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Lat</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Lon</t>
         </is>
@@ -387,1404 +392,1793 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>北台灣</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>彭佳嶼</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>TRM1</t>
         </is>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>25.629</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>122.078</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>北台灣</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>棉花嶼</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>TRM2</t>
         </is>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>25.485</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>122.105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>北台灣</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>花瓶嶼</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>TRM3</t>
         </is>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>25.424</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>121.946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>北台灣</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>基隆嶼</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>TRM6</t>
         </is>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>25.191</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>121.785</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>北台灣</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>潮境</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>TRM7</t>
         </is>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>25.14431</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>121.80504</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>北台灣</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>深澳</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>TRM8</t>
         </is>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>25.13507</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>121.8199</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>北台灣</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>鼻頭</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>TRM9</t>
         </is>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>25.12585</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>121.91388</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>北台灣</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>82.5</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>TRM10</t>
         </is>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>25.121</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>121.898</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>北台灣</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>龍洞</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>TRM11</t>
         </is>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>25.11339</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>121.91933</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>北台灣</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>美艷山</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>TRM12</t>
         </is>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>25.071</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>121.924</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>北台灣</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>桂安漁港</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>TRM13</t>
         </is>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>25.023</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>121.963</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>北台灣</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>馬崗</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>TRM14</t>
         </is>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>25.018</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>121.999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>北台灣</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>卯澳</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>TRM15</t>
         </is>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>25.018</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>121.99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>北台灣</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>龜山島I</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>TRM17</t>
         </is>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>24.843</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>121.937</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>北台灣</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>龜山島II</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>TRM17bis</t>
         </is>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>24.84581</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>121.94379</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>北台灣</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>小香蘭</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>XXL</t>
         </is>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>25.02667</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>121.97327</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>北台灣</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>和平島</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>HPD</t>
         </is>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>25.16083</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>121.7715</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>北台灣</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>外木山</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>WMS</t>
         </is>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>25.1656</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>121.7224</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>北台灣</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>協和</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>XH</t>
         </is>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>25.15898</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>121.7405</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>北台灣</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>蝙蝠洞</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>BC</t>
         </is>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>25.1277</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>121.8314</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>東台灣</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>East</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>粉鳥林</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>TRM20</t>
         </is>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>24.498</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>121.844</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>東台灣</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>East</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>烏石鼻</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>TRM21</t>
         </is>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>24.482</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>121.862</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>東台灣</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>East</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>磯崎</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>TRM23</t>
         </is>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>23.694</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>121.552</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>東台灣</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>East</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>新社</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>TRM24</t>
         </is>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>23.661</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>121.543</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>東台灣</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>East</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>石梯坪</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>TRM25</t>
         </is>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>23.483</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>121.514</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>東台灣</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>East</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>石雨傘</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>TRM26</t>
         </is>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>23.177</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>121.404</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>東台灣</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>East</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>基翬</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>TRM27</t>
         </is>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>23.118</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>121.397</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>東台灣</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>East</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>加母子</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>TRM29</t>
         </is>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>23.116</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>121.397</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>目斗嶼</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>TRM31</t>
         </is>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>23.78733</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>119.60176</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>姑婆嶼</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>TRM32</t>
         </is>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>23.71495</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>119.55799</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>北鐵砧</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>TRM33</t>
         </is>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>23.71258</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>119.56742</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>南鐵砧</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>TRM33bis</t>
         </is>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>23.27507</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>119.50363</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>澎澎灘</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>TRM34</t>
         </is>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>23.67268</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>119.6388</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>鯨魚洞</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>TRM35</t>
         </is>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>23.65721</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>119.5224</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>小門嶼</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>TRM36</t>
         </is>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>23.65166</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>119.52856</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>四角嶼</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>TRM37</t>
         </is>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>23.55648</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>119.54309</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>雞籠嶼</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>TRM38</t>
         </is>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>23.5424</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>119.53077</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>懷恩堂</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>TRM39</t>
         </is>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>23.53386</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>119.61486</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>青灣</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>TRM40</t>
         </is>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>23.53421</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>119.56421</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>青灣內灣</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>TRM41</t>
         </is>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>23.52964</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>119.55956</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>桶盤嶼</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>TRM42</t>
         </is>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>23.51339</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>119.52228</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>虎井嶼</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>TRM43</t>
         </is>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>23.49275</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>119.5205</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>花嶼</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>TRM44</t>
         </is>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>23.4047</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>119.31565</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>貓嶼</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>TRM46</t>
         </is>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>23.32628</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>119.32109</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>西嶼坪</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>TRM47</t>
         </is>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>23.2739</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>119.50825</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>頭巾嶼</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>TRM47bis</t>
         </is>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>23.28883</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>119.50281</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>東嶼坪</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>TRM48</t>
         </is>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>23.25962</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>119.51113</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>東吉嶼</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>TRM49</t>
         </is>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>23.25038</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>119.67429</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>西吉嶼</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>TRM50</t>
         </is>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>23.24467</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>119.61939</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>澎湖</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>Penghu</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>七美</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>TRM51</t>
         </is>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>23.19146</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>119.43095</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>小琉球</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>Liuqiu</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>花瓶石</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>VR</t>
         </is>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>22.356</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>120.38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>小琉球</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t>Liuqiu</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>美人洞</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>BTC</t>
         </is>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>22.353</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>120.37</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>小琉球</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>Liuqiu</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>中澳沙灘</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>ZB</t>
         </is>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>22.352</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>120.387</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>小琉球</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>Liuqiu</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>肚仔坪</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>DZP</t>
         </is>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>22.35</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>120.364</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>小琉球</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>Liuqiu</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>龍蝦洞</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>LC</t>
         </is>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>22.345</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>120.389</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>小琉球</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>Liuqiu</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>杉福</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>22.341</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>120.361</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>小琉球</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
           <t>Liuqiu</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>烏鬼洞</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>WGC</t>
         </is>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>22.331</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>120.355</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>小琉球</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
           <t>Liuqiu</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>大福</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>DF</t>
         </is>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>22.33</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>120.371</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>小琉球</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
           <t>Liuqiu</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>厚石</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>HS</t>
         </is>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>22.324</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>120.367</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TY</t>
+          <t>桃園</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>Taoyuan</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>大潭</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>TY10</t>
         </is>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>25.19028</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>121.1686</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TY</t>
+          <t>桃園</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>Taoyuan</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>觀新</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>TY11</t>
         </is>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>25.10278</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>121.1861</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>墾丁</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Kenting</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>貓鼻頭</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>TRM90</t>
+        </is>
+      </c>
+      <c r="E63">
+        <v>21.917</v>
+      </c>
+      <c r="F63">
+        <v>120.738</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>墾丁</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Kenting</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>紅柴坑</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>TRM83</t>
+        </is>
+      </c>
+      <c r="E64">
+        <v>21.965</v>
+      </c>
+      <c r="F64">
+        <v>120.71</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>墾丁</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Kenting</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>萬里桐</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>TRM81</t>
+        </is>
+      </c>
+      <c r="E65">
+        <v>21.995</v>
+      </c>
+      <c r="F65">
+        <v>120.704</v>
       </c>
     </row>
   </sheetData>

--- a/data/station.xlsx
+++ b/data/station.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,6 +388,11 @@
           <t>Lon</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Progress</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -407,7 +412,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TRM1</t>
+          <t>彭佳嶼</t>
         </is>
       </c>
       <c r="E2">
@@ -416,6 +421,11 @@
       <c r="F2">
         <v>122.078</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -435,7 +445,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TRM2</t>
+          <t>棉花嶼</t>
         </is>
       </c>
       <c r="E3">
@@ -444,6 +454,11 @@
       <c r="F3">
         <v>122.105</v>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -463,7 +478,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TRM3</t>
+          <t>花瓶嶼</t>
         </is>
       </c>
       <c r="E4">
@@ -472,6 +487,11 @@
       <c r="F4">
         <v>121.946</v>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -491,7 +511,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TRM6</t>
+          <t>基隆嶼</t>
         </is>
       </c>
       <c r="E5">
@@ -500,6 +520,11 @@
       <c r="F5">
         <v>121.785</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -519,7 +544,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TRM7</t>
+          <t>潮境</t>
         </is>
       </c>
       <c r="E6">
@@ -528,6 +553,11 @@
       <c r="F6">
         <v>121.80504</v>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -547,7 +577,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TRM8</t>
+          <t>深澳</t>
         </is>
       </c>
       <c r="E7">
@@ -556,6 +586,11 @@
       <c r="F7">
         <v>121.8199</v>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -575,7 +610,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TRM9</t>
+          <t>鼻頭</t>
         </is>
       </c>
       <c r="E8">
@@ -584,6 +619,11 @@
       <c r="F8">
         <v>121.91388</v>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -603,7 +643,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TRM10</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="E9">
@@ -612,6 +652,11 @@
       <c r="F9">
         <v>121.898</v>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -631,7 +676,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TRM11</t>
+          <t>龍洞</t>
         </is>
       </c>
       <c r="E10">
@@ -640,6 +685,11 @@
       <c r="F10">
         <v>121.91933</v>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -659,7 +709,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TRM12</t>
+          <t>美艷山</t>
         </is>
       </c>
       <c r="E11">
@@ -668,6 +718,11 @@
       <c r="F11">
         <v>121.924</v>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -687,7 +742,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TRM13</t>
+          <t>桂安漁港</t>
         </is>
       </c>
       <c r="E12">
@@ -696,6 +751,11 @@
       <c r="F12">
         <v>121.963</v>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -715,7 +775,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>TRM14</t>
+          <t>馬崗</t>
         </is>
       </c>
       <c r="E13">
@@ -724,6 +784,11 @@
       <c r="F13">
         <v>121.999</v>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -743,7 +808,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>TRM15</t>
+          <t>卯澳</t>
         </is>
       </c>
       <c r="E14">
@@ -752,6 +817,11 @@
       <c r="F14">
         <v>121.99</v>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -766,12 +836,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>龜山島I</t>
+          <t>龜山島(I)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TRM17</t>
+          <t>龜山島(I)</t>
         </is>
       </c>
       <c r="E15">
@@ -780,6 +850,11 @@
       <c r="F15">
         <v>121.937</v>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -794,12 +869,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>龜山島II</t>
+          <t>龜山島(II)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TRM17bis</t>
+          <t>龜山島(II)</t>
         </is>
       </c>
       <c r="E16">
@@ -808,6 +883,11 @@
       <c r="F16">
         <v>121.94379</v>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -827,7 +907,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>XXL</t>
+          <t>小香蘭</t>
         </is>
       </c>
       <c r="E17">
@@ -836,6 +916,11 @@
       <c r="F17">
         <v>121.97327</v>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -855,7 +940,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HPD</t>
+          <t>和平島</t>
         </is>
       </c>
       <c r="E18">
@@ -864,6 +949,11 @@
       <c r="F18">
         <v>121.7715</v>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -883,7 +973,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>外木山</t>
         </is>
       </c>
       <c r="E19">
@@ -892,6 +982,11 @@
       <c r="F19">
         <v>121.7224</v>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -911,7 +1006,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>XH</t>
+          <t>協和</t>
         </is>
       </c>
       <c r="E20">
@@ -920,6 +1015,11 @@
       <c r="F20">
         <v>121.7405</v>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -939,7 +1039,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>蝙蝠洞</t>
         </is>
       </c>
       <c r="E21">
@@ -948,6 +1048,11 @@
       <c r="F21">
         <v>121.8314</v>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -967,7 +1072,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TRM20</t>
+          <t>粉鳥林</t>
         </is>
       </c>
       <c r="E22">
@@ -976,6 +1081,11 @@
       <c r="F22">
         <v>121.844</v>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -995,7 +1105,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TRM21</t>
+          <t>烏石鼻</t>
         </is>
       </c>
       <c r="E23">
@@ -1004,6 +1114,11 @@
       <c r="F23">
         <v>121.862</v>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1023,7 +1138,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TRM23</t>
+          <t>磯崎</t>
         </is>
       </c>
       <c r="E24">
@@ -1032,6 +1147,11 @@
       <c r="F24">
         <v>121.552</v>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1051,7 +1171,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TRM24</t>
+          <t>新社</t>
         </is>
       </c>
       <c r="E25">
@@ -1060,6 +1180,11 @@
       <c r="F25">
         <v>121.543</v>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1079,7 +1204,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TRM25</t>
+          <t>石梯坪</t>
         </is>
       </c>
       <c r="E26">
@@ -1088,6 +1213,11 @@
       <c r="F26">
         <v>121.514</v>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1107,7 +1237,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TRM26</t>
+          <t>石雨傘</t>
         </is>
       </c>
       <c r="E27">
@@ -1116,6 +1246,11 @@
       <c r="F27">
         <v>121.404</v>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1135,7 +1270,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TRM27</t>
+          <t>基翬</t>
         </is>
       </c>
       <c r="E28">
@@ -1144,6 +1279,11 @@
       <c r="F28">
         <v>121.397</v>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1163,7 +1303,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TRM29</t>
+          <t>加母子</t>
         </is>
       </c>
       <c r="E29">
@@ -1172,6 +1312,11 @@
       <c r="F29">
         <v>121.397</v>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>已採樣</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1191,7 +1336,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TRM31</t>
+          <t>目斗嶼</t>
         </is>
       </c>
       <c r="E30">
@@ -1200,6 +1345,11 @@
       <c r="F30">
         <v>119.60176</v>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1219,7 +1369,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>TRM32</t>
+          <t>姑婆嶼</t>
         </is>
       </c>
       <c r="E31">
@@ -1228,6 +1378,11 @@
       <c r="F31">
         <v>119.55799</v>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1247,7 +1402,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>TRM33</t>
+          <t>北鐵砧</t>
         </is>
       </c>
       <c r="E32">
@@ -1256,6 +1411,11 @@
       <c r="F32">
         <v>119.56742</v>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1275,7 +1435,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>TRM33bis</t>
+          <t>南鐵砧</t>
         </is>
       </c>
       <c r="E33">
@@ -1284,6 +1444,11 @@
       <c r="F33">
         <v>119.50363</v>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1303,7 +1468,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TRM34</t>
+          <t>澎澎灘</t>
         </is>
       </c>
       <c r="E34">
@@ -1312,6 +1477,11 @@
       <c r="F34">
         <v>119.6388</v>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1331,7 +1501,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TRM35</t>
+          <t>鯨魚洞</t>
         </is>
       </c>
       <c r="E35">
@@ -1340,6 +1510,11 @@
       <c r="F35">
         <v>119.5224</v>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1359,7 +1534,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>TRM36</t>
+          <t>小門嶼</t>
         </is>
       </c>
       <c r="E36">
@@ -1368,6 +1543,11 @@
       <c r="F36">
         <v>119.52856</v>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1387,7 +1567,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>TRM37</t>
+          <t>四角嶼</t>
         </is>
       </c>
       <c r="E37">
@@ -1396,6 +1576,11 @@
       <c r="F37">
         <v>119.54309</v>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1415,7 +1600,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>TRM38</t>
+          <t>雞籠嶼</t>
         </is>
       </c>
       <c r="E38">
@@ -1424,6 +1609,11 @@
       <c r="F38">
         <v>119.53077</v>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1443,7 +1633,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>TRM39</t>
+          <t>懷恩堂</t>
         </is>
       </c>
       <c r="E39">
@@ -1452,6 +1642,11 @@
       <c r="F39">
         <v>119.61486</v>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1471,7 +1666,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>TRM40</t>
+          <t>青灣</t>
         </is>
       </c>
       <c r="E40">
@@ -1480,6 +1675,11 @@
       <c r="F40">
         <v>119.56421</v>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1499,7 +1699,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>TRM41</t>
+          <t>青灣內灣</t>
         </is>
       </c>
       <c r="E41">
@@ -1508,6 +1708,11 @@
       <c r="F41">
         <v>119.55956</v>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1527,7 +1732,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>TRM42</t>
+          <t>桶盤嶼</t>
         </is>
       </c>
       <c r="E42">
@@ -1536,6 +1741,11 @@
       <c r="F42">
         <v>119.52228</v>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1555,7 +1765,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TRM43</t>
+          <t>虎井嶼</t>
         </is>
       </c>
       <c r="E43">
@@ -1564,6 +1774,11 @@
       <c r="F43">
         <v>119.5205</v>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1583,7 +1798,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>TRM44</t>
+          <t>花嶼</t>
         </is>
       </c>
       <c r="E44">
@@ -1592,6 +1807,11 @@
       <c r="F44">
         <v>119.31565</v>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1611,7 +1831,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>TRM46</t>
+          <t>貓嶼</t>
         </is>
       </c>
       <c r="E45">
@@ -1620,6 +1840,11 @@
       <c r="F45">
         <v>119.32109</v>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1639,7 +1864,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>TRM47</t>
+          <t>西嶼坪</t>
         </is>
       </c>
       <c r="E46">
@@ -1648,6 +1873,11 @@
       <c r="F46">
         <v>119.50825</v>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1667,7 +1897,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>TRM47bis</t>
+          <t>頭巾嶼</t>
         </is>
       </c>
       <c r="E47">
@@ -1676,6 +1906,11 @@
       <c r="F47">
         <v>119.50281</v>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1695,7 +1930,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>TRM48</t>
+          <t>東嶼坪</t>
         </is>
       </c>
       <c r="E48">
@@ -1704,6 +1939,11 @@
       <c r="F48">
         <v>119.51113</v>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1723,7 +1963,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>TRM49</t>
+          <t>東吉嶼</t>
         </is>
       </c>
       <c r="E49">
@@ -1732,6 +1972,11 @@
       <c r="F49">
         <v>119.67429</v>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1751,7 +1996,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>TRM50</t>
+          <t>西吉嶼</t>
         </is>
       </c>
       <c r="E50">
@@ -1760,6 +2005,11 @@
       <c r="F50">
         <v>119.61939</v>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1779,7 +2029,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>TRM51</t>
+          <t>七美</t>
         </is>
       </c>
       <c r="E51">
@@ -1788,6 +2038,11 @@
       <c r="F51">
         <v>119.43095</v>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1807,7 +2062,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VR</t>
+          <t>花瓶石</t>
         </is>
       </c>
       <c r="E52">
@@ -1816,6 +2071,11 @@
       <c r="F52">
         <v>120.38</v>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>已採樣</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1835,7 +2095,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>BTC</t>
+          <t>美人洞</t>
         </is>
       </c>
       <c r="E53">
@@ -1844,6 +2104,11 @@
       <c r="F53">
         <v>120.37</v>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1863,7 +2128,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ZB</t>
+          <t>中澳沙灘</t>
         </is>
       </c>
       <c r="E54">
@@ -1872,6 +2137,11 @@
       <c r="F54">
         <v>120.387</v>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1891,7 +2161,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>DZP</t>
+          <t>肚仔坪</t>
         </is>
       </c>
       <c r="E55">
@@ -1900,6 +2170,11 @@
       <c r="F55">
         <v>120.364</v>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>已採樣</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1919,7 +2194,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>龍蝦洞</t>
         </is>
       </c>
       <c r="E56">
@@ -1928,6 +2203,11 @@
       <c r="F56">
         <v>120.389</v>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1947,7 +2227,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>杉福</t>
         </is>
       </c>
       <c r="E57">
@@ -1956,6 +2236,11 @@
       <c r="F57">
         <v>120.361</v>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1975,7 +2260,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>WGC</t>
+          <t>烏鬼洞</t>
         </is>
       </c>
       <c r="E58">
@@ -1984,6 +2269,11 @@
       <c r="F58">
         <v>120.355</v>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2003,7 +2293,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>大福</t>
         </is>
       </c>
       <c r="E59">
@@ -2012,6 +2302,11 @@
       <c r="F59">
         <v>120.371</v>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2031,7 +2326,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>厚石</t>
         </is>
       </c>
       <c r="E60">
@@ -2040,6 +2335,11 @@
       <c r="F60">
         <v>120.367</v>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2059,7 +2359,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>TY10</t>
+          <t>大潭</t>
         </is>
       </c>
       <c r="E61">
@@ -2068,6 +2368,11 @@
       <c r="F61">
         <v>121.1686</v>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2087,7 +2392,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>TY11</t>
+          <t>觀新</t>
         </is>
       </c>
       <c r="E62">
@@ -2096,6 +2401,11 @@
       <c r="F62">
         <v>121.1861</v>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2110,19 +2420,24 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>貓鼻頭</t>
+          <t>跳石</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>TRM90</t>
+          <t>跳石</t>
         </is>
       </c>
       <c r="E63">
-        <v>21.917</v>
+        <v>21.953376</v>
       </c>
       <c r="F63">
-        <v>120.738</v>
+        <v>120.769226</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>已採樣</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -2138,19 +2453,24 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>紅柴坑</t>
+          <t>香蕉灣 I</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>TRM83</t>
+          <t>香蕉灣 I</t>
         </is>
       </c>
       <c r="E64">
-        <v>21.965</v>
+        <v>21.924626</v>
       </c>
       <c r="F64">
-        <v>120.71</v>
+        <v>120.829325</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>已採樣</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -2166,19 +2486,420 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>佳樂水</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>佳樂水</t>
+        </is>
+      </c>
+      <c r="E65">
+        <v>21.99726</v>
+      </c>
+      <c r="F65">
+        <v>120.873188</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>已採樣</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>墾丁</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Kenting</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>萬里桐</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>TRM81</t>
-        </is>
-      </c>
-      <c r="E65">
-        <v>21.995</v>
-      </c>
-      <c r="F65">
-        <v>120.704</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>萬里桐</t>
+        </is>
+      </c>
+      <c r="E66">
+        <v>21.99535</v>
+      </c>
+      <c r="F66">
+        <v>120.700647</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>墾丁</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Kenting</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>紅柴</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>紅柴</t>
+        </is>
+      </c>
+      <c r="E67">
+        <v>21.976484</v>
+      </c>
+      <c r="F67">
+        <v>120.714387</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>已採樣</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>墾丁</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Kenting</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>紅柴坑</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>紅柴坑</t>
+        </is>
+      </c>
+      <c r="E68">
+        <v>21.965385</v>
+      </c>
+      <c r="F68">
+        <v>120.711864</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>墾丁</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Kenting</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>後壁湖</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>後壁湖</t>
+        </is>
+      </c>
+      <c r="E69">
+        <v>21.942488</v>
+      </c>
+      <c r="F69">
+        <v>120.752944</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>已採樣</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>墾丁</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Kenting</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>頂白砂</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>頂白砂</t>
+        </is>
+      </c>
+      <c r="E70">
+        <v>21.942043</v>
+      </c>
+      <c r="F70">
+        <v>120.709931</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>已採樣</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>墾丁</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Kenting</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>電廠出水口</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>電廠出水口</t>
+        </is>
+      </c>
+      <c r="E71">
+        <v>21.930777</v>
+      </c>
+      <c r="F71">
+        <v>120.744966</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>已採樣</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>墾丁</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Kenting</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>雷打石</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>雷打石</t>
+        </is>
+      </c>
+      <c r="E72">
+        <v>21.929179</v>
+      </c>
+      <c r="F72">
+        <v>120.744357</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>已採樣</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>墾丁</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Kenting</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>小灣</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>小灣</t>
+        </is>
+      </c>
+      <c r="E73">
+        <v>21.936339</v>
+      </c>
+      <c r="F73">
+        <v>120.8059</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>已採樣</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>墾丁</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Kenting</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>香蕉灣 II</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>香蕉灣 II</t>
+        </is>
+      </c>
+      <c r="E74">
+        <v>21.923168</v>
+      </c>
+      <c r="F74">
+        <v>120.831831</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>已採樣</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>墾丁</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Kenting</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>貓鼻頭</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>貓鼻頭</t>
+        </is>
+      </c>
+      <c r="E75">
+        <v>21.918296</v>
+      </c>
+      <c r="F75">
+        <v>120.73564</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>墾丁</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Kenting</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>龍坑生態保護區</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>龍坑生態保護區</t>
+        </is>
+      </c>
+      <c r="E76">
+        <v>21.907241</v>
+      </c>
+      <c r="F76">
+        <v>120.862468</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>已採樣</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>墾丁</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Kenting</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>七星岩</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>七星岩</t>
+        </is>
+      </c>
+      <c r="E77">
+        <v>21.759668</v>
+      </c>
+      <c r="F77">
+        <v>120.826478</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>已採樣</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/station.xlsx
+++ b/data/station.xlsx
@@ -423,7 +423,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022期末</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022期末</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022期中</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022期中</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -852,7 +852,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022期末</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022期末</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022期末</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022期中</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022期中</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022期中</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022期末</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022期中</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022期中</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>已採樣</t>
+          <t>2022期中</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期中</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期中</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期中</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期中</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期中</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022期中</t>
         </is>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期中</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期中</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期中</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期中</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期中</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>已採樣</t>
+          <t>已採樣，未納入分析</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022期中</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022期中</t>
         </is>
       </c>
     </row>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>已採樣</t>
+          <t>已採樣，未納入分析</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022期末</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022期中</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022期中</t>
         </is>
       </c>
     </row>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022期中</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022期中</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2021期末</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>已採樣</t>
+          <t>已採樣，未納入分析</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>已採樣</t>
+          <t>已採樣，未納入分析</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>已採樣</t>
+          <t>已採樣，未納入分析</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022期末</t>
         </is>
       </c>
     </row>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>已採樣</t>
+          <t>已採樣，未納入分析</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022期末</t>
         </is>
       </c>
     </row>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>已採樣</t>
+          <t>已採樣，未納入分析</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>已採樣</t>
+          <t>已採樣，未納入分析</t>
         </is>
       </c>
     </row>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>已採樣</t>
+          <t>已採樣，未納入分析</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>已採樣</t>
+          <t>已採樣，未納入分析</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>已採樣</t>
+          <t>已採樣，未納入分析</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>已採樣</t>
+          <t>已採樣，未納入分析</t>
         </is>
       </c>
     </row>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022期末</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>已採樣</t>
+          <t>已採樣，未納入分析</t>
         </is>
       </c>
     </row>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>已採樣</t>
+          <t>已採樣，未納入分析</t>
         </is>
       </c>
     </row>

--- a/data/station.xlsx
+++ b/data/station.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,25 +370,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Station_zh</t>
+          <t>Station</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Station</t>
+          <t>Lat</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Lat</t>
+          <t>Lon</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Lon</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Progress</t>
         </is>
@@ -410,18 +405,13 @@
           <t>彭佳嶼</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>彭佳嶼</t>
-        </is>
+      <c r="D2">
+        <v>25.629</v>
       </c>
       <c r="E2">
-        <v>25.629</v>
-      </c>
-      <c r="F2">
         <v>122.078</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -443,18 +433,13 @@
           <t>棉花嶼</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>棉花嶼</t>
-        </is>
+      <c r="D3">
+        <v>25.485</v>
       </c>
       <c r="E3">
-        <v>25.485</v>
-      </c>
-      <c r="F3">
         <v>122.105</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2022期末</t>
         </is>
@@ -476,18 +461,13 @@
           <t>花瓶嶼</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>花瓶嶼</t>
-        </is>
+      <c r="D4">
+        <v>25.424</v>
       </c>
       <c r="E4">
-        <v>25.424</v>
-      </c>
-      <c r="F4">
         <v>121.946</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -509,18 +489,13 @@
           <t>基隆嶼</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>基隆嶼</t>
-        </is>
+      <c r="D5">
+        <v>25.191</v>
       </c>
       <c r="E5">
-        <v>25.191</v>
-      </c>
-      <c r="F5">
         <v>121.785</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -542,18 +517,13 @@
           <t>潮境</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>潮境</t>
-        </is>
+      <c r="D6">
+        <v>25.14431</v>
       </c>
       <c r="E6">
-        <v>25.14431</v>
-      </c>
-      <c r="F6">
         <v>121.80504</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -575,18 +545,13 @@
           <t>深澳</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>深澳</t>
-        </is>
+      <c r="D7">
+        <v>25.13507</v>
       </c>
       <c r="E7">
-        <v>25.13507</v>
-      </c>
-      <c r="F7">
         <v>121.8199</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -608,18 +573,13 @@
           <t>鼻頭</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>鼻頭</t>
-        </is>
+      <c r="D8">
+        <v>25.12585</v>
       </c>
       <c r="E8">
-        <v>25.12585</v>
-      </c>
-      <c r="F8">
         <v>121.91388</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -641,18 +601,13 @@
           <t>82.5</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>82.5</t>
-        </is>
+      <c r="D9">
+        <v>25.121</v>
       </c>
       <c r="E9">
-        <v>25.121</v>
-      </c>
-      <c r="F9">
         <v>121.898</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -674,18 +629,13 @@
           <t>龍洞</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>龍洞</t>
-        </is>
+      <c r="D10">
+        <v>25.11339</v>
       </c>
       <c r="E10">
-        <v>25.11339</v>
-      </c>
-      <c r="F10">
         <v>121.91933</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -707,18 +657,13 @@
           <t>美艷山</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>美艷山</t>
-        </is>
+      <c r="D11">
+        <v>25.071</v>
       </c>
       <c r="E11">
-        <v>25.071</v>
-      </c>
-      <c r="F11">
         <v>121.924</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2022期末</t>
         </is>
@@ -740,18 +685,13 @@
           <t>桂安漁港</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>桂安漁港</t>
-        </is>
+      <c r="D12">
+        <v>25.023</v>
       </c>
       <c r="E12">
-        <v>25.023</v>
-      </c>
-      <c r="F12">
         <v>121.963</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2022期中</t>
         </is>
@@ -773,18 +713,13 @@
           <t>馬崗</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>馬崗</t>
-        </is>
+      <c r="D13">
+        <v>25.018</v>
       </c>
       <c r="E13">
-        <v>25.018</v>
-      </c>
-      <c r="F13">
         <v>121.999</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2022期中</t>
         </is>
@@ -806,18 +741,13 @@
           <t>卯澳</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>卯澳</t>
-        </is>
+      <c r="D14">
+        <v>25.018</v>
       </c>
       <c r="E14">
-        <v>25.018</v>
-      </c>
-      <c r="F14">
         <v>121.99</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -839,18 +769,13 @@
           <t>龜山島(I)</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>龜山島(I)</t>
-        </is>
+      <c r="D15">
+        <v>24.843</v>
       </c>
       <c r="E15">
-        <v>24.843</v>
-      </c>
-      <c r="F15">
         <v>121.937</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2022期末</t>
         </is>
@@ -872,18 +797,13 @@
           <t>龜山島(II)</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>龜山島(II)</t>
-        </is>
+      <c r="D16">
+        <v>24.84581</v>
       </c>
       <c r="E16">
-        <v>24.84581</v>
-      </c>
-      <c r="F16">
         <v>121.94379</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2022期末</t>
         </is>
@@ -905,18 +825,13 @@
           <t>小香蘭</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>小香蘭</t>
-        </is>
+      <c r="D17">
+        <v>25.02667</v>
       </c>
       <c r="E17">
-        <v>25.02667</v>
-      </c>
-      <c r="F17">
         <v>121.97327</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -938,18 +853,13 @@
           <t>和平島</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>和平島</t>
-        </is>
+      <c r="D18">
+        <v>25.16083</v>
       </c>
       <c r="E18">
-        <v>25.16083</v>
-      </c>
-      <c r="F18">
         <v>121.7715</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -971,18 +881,13 @@
           <t>外木山</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>外木山</t>
-        </is>
+      <c r="D19">
+        <v>25.1656</v>
       </c>
       <c r="E19">
-        <v>25.1656</v>
-      </c>
-      <c r="F19">
         <v>121.7224</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -1004,18 +909,13 @@
           <t>協和</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>協和</t>
-        </is>
+      <c r="D20">
+        <v>25.15898</v>
       </c>
       <c r="E20">
-        <v>25.15898</v>
-      </c>
-      <c r="F20">
         <v>121.7405</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -1037,18 +937,13 @@
           <t>蝙蝠洞</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>蝙蝠洞</t>
-        </is>
+      <c r="D21">
+        <v>25.1277</v>
       </c>
       <c r="E21">
-        <v>25.1277</v>
-      </c>
-      <c r="F21">
         <v>121.8314</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -1070,18 +965,13 @@
           <t>粉鳥林</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>粉鳥林</t>
-        </is>
+      <c r="D22">
+        <v>24.498</v>
       </c>
       <c r="E22">
-        <v>24.498</v>
-      </c>
-      <c r="F22">
         <v>121.844</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2022期末</t>
         </is>
@@ -1103,18 +993,13 @@
           <t>烏石鼻</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>烏石鼻</t>
-        </is>
+      <c r="D23">
+        <v>24.482</v>
       </c>
       <c r="E23">
-        <v>24.482</v>
-      </c>
-      <c r="F23">
         <v>121.862</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2022期中</t>
         </is>
@@ -1136,18 +1021,13 @@
           <t>磯崎</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>磯崎</t>
-        </is>
+      <c r="D24">
+        <v>23.694</v>
       </c>
       <c r="E24">
-        <v>23.694</v>
-      </c>
-      <c r="F24">
         <v>121.552</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>2022期中</t>
         </is>
@@ -1169,18 +1049,13 @@
           <t>新社</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>新社</t>
-        </is>
+      <c r="D25">
+        <v>23.661</v>
       </c>
       <c r="E25">
-        <v>23.661</v>
-      </c>
-      <c r="F25">
         <v>121.543</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2022期中</t>
         </is>
@@ -1202,18 +1077,13 @@
           <t>石梯坪</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>石梯坪</t>
-        </is>
+      <c r="D26">
+        <v>23.483</v>
       </c>
       <c r="E26">
-        <v>23.483</v>
-      </c>
-      <c r="F26">
         <v>121.514</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2022期末</t>
         </is>
@@ -1235,18 +1105,13 @@
           <t>石雨傘</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>石雨傘</t>
-        </is>
+      <c r="D27">
+        <v>23.177</v>
       </c>
       <c r="E27">
-        <v>23.177</v>
-      </c>
-      <c r="F27">
         <v>121.404</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>2022期中</t>
         </is>
@@ -1268,18 +1133,13 @@
           <t>基翬</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>基翬</t>
-        </is>
+      <c r="D28">
+        <v>23.118</v>
       </c>
       <c r="E28">
-        <v>23.118</v>
-      </c>
-      <c r="F28">
         <v>121.397</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>2022期中</t>
         </is>
@@ -1298,21 +1158,16 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>加母子</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>加母子</t>
-        </is>
+          <t>加母子灣</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>23.116</v>
       </c>
       <c r="E29">
-        <v>23.116</v>
-      </c>
-      <c r="F29">
         <v>121.397</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>2022期中</t>
         </is>
@@ -1334,18 +1189,13 @@
           <t>目斗嶼</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>目斗嶼</t>
-        </is>
+      <c r="D30">
+        <v>23.78733</v>
       </c>
       <c r="E30">
-        <v>23.78733</v>
-      </c>
-      <c r="F30">
         <v>119.60176</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -1367,18 +1217,13 @@
           <t>姑婆嶼</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>姑婆嶼</t>
-        </is>
+      <c r="D31">
+        <v>23.71495</v>
       </c>
       <c r="E31">
-        <v>23.71495</v>
-      </c>
-      <c r="F31">
         <v>119.55799</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>2021期中</t>
         </is>
@@ -1400,18 +1245,13 @@
           <t>北鐵砧</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>北鐵砧</t>
-        </is>
+      <c r="D32">
+        <v>23.71258</v>
       </c>
       <c r="E32">
-        <v>23.71258</v>
-      </c>
-      <c r="F32">
         <v>119.56742</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>2021期中</t>
         </is>
@@ -1433,18 +1273,13 @@
           <t>南鐵砧</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>南鐵砧</t>
-        </is>
+      <c r="D33">
+        <v>23.27507</v>
       </c>
       <c r="E33">
-        <v>23.27507</v>
-      </c>
-      <c r="F33">
         <v>119.50363</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -1466,18 +1301,13 @@
           <t>澎澎灘</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>澎澎灘</t>
-        </is>
+      <c r="D34">
+        <v>23.67268</v>
       </c>
       <c r="E34">
-        <v>23.67268</v>
-      </c>
-      <c r="F34">
         <v>119.6388</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>2021期中</t>
         </is>
@@ -1499,18 +1329,13 @@
           <t>鯨魚洞</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>鯨魚洞</t>
-        </is>
+      <c r="D35">
+        <v>23.65721</v>
       </c>
       <c r="E35">
-        <v>23.65721</v>
-      </c>
-      <c r="F35">
         <v>119.5224</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>2021期中</t>
         </is>
@@ -1532,18 +1357,13 @@
           <t>小門嶼</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>小門嶼</t>
-        </is>
+      <c r="D36">
+        <v>23.65166</v>
       </c>
       <c r="E36">
-        <v>23.65166</v>
-      </c>
-      <c r="F36">
         <v>119.52856</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>2021期中</t>
         </is>
@@ -1565,18 +1385,13 @@
           <t>四角嶼</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>四角嶼</t>
-        </is>
+      <c r="D37">
+        <v>23.55648</v>
       </c>
       <c r="E37">
-        <v>23.55648</v>
-      </c>
-      <c r="F37">
         <v>119.54309</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -1598,18 +1413,13 @@
           <t>雞籠嶼</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>雞籠嶼</t>
-        </is>
+      <c r="D38">
+        <v>23.5424</v>
       </c>
       <c r="E38">
-        <v>23.5424</v>
-      </c>
-      <c r="F38">
         <v>119.53077</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -1631,18 +1441,13 @@
           <t>懷恩堂</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>懷恩堂</t>
-        </is>
+      <c r="D39">
+        <v>23.53386</v>
       </c>
       <c r="E39">
-        <v>23.53386</v>
-      </c>
-      <c r="F39">
         <v>119.61486</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -1664,18 +1469,13 @@
           <t>青灣</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>青灣</t>
-        </is>
+      <c r="D40">
+        <v>23.53421</v>
       </c>
       <c r="E40">
-        <v>23.53421</v>
-      </c>
-      <c r="F40">
         <v>119.56421</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>2022期中</t>
         </is>
@@ -1697,18 +1497,13 @@
           <t>青灣內灣</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>青灣內灣</t>
-        </is>
+      <c r="D41">
+        <v>23.52964</v>
       </c>
       <c r="E41">
-        <v>23.52964</v>
-      </c>
-      <c r="F41">
         <v>119.55956</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>2021期中</t>
         </is>
@@ -1730,18 +1525,13 @@
           <t>桶盤嶼</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>桶盤嶼</t>
-        </is>
+      <c r="D42">
+        <v>23.51339</v>
       </c>
       <c r="E42">
-        <v>23.51339</v>
-      </c>
-      <c r="F42">
         <v>119.52228</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -1763,18 +1553,13 @@
           <t>虎井嶼</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>虎井嶼</t>
-        </is>
+      <c r="D43">
+        <v>23.49275</v>
       </c>
       <c r="E43">
-        <v>23.49275</v>
-      </c>
-      <c r="F43">
         <v>119.5205</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -1796,18 +1581,13 @@
           <t>花嶼</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>花嶼</t>
-        </is>
+      <c r="D44">
+        <v>23.4047</v>
       </c>
       <c r="E44">
-        <v>23.4047</v>
-      </c>
-      <c r="F44">
         <v>119.31565</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>2021期中</t>
         </is>
@@ -1829,18 +1609,13 @@
           <t>貓嶼</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>貓嶼</t>
-        </is>
+      <c r="D45">
+        <v>23.32628</v>
       </c>
       <c r="E45">
-        <v>23.32628</v>
-      </c>
-      <c r="F45">
         <v>119.32109</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>2021期中</t>
         </is>
@@ -1862,18 +1637,13 @@
           <t>西嶼坪</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>西嶼坪</t>
-        </is>
+      <c r="D46">
+        <v>23.2739</v>
       </c>
       <c r="E46">
-        <v>23.2739</v>
-      </c>
-      <c r="F46">
         <v>119.50825</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -1895,18 +1665,13 @@
           <t>頭巾嶼</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>頭巾嶼</t>
-        </is>
+      <c r="D47">
+        <v>23.28883</v>
       </c>
       <c r="E47">
-        <v>23.28883</v>
-      </c>
-      <c r="F47">
         <v>119.50281</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -1928,18 +1693,13 @@
           <t>東嶼坪</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>東嶼坪</t>
-        </is>
+      <c r="D48">
+        <v>23.25962</v>
       </c>
       <c r="E48">
-        <v>23.25962</v>
-      </c>
-      <c r="F48">
         <v>119.51113</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -1961,18 +1721,13 @@
           <t>東吉嶼</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>東吉嶼</t>
-        </is>
+      <c r="D49">
+        <v>23.25038</v>
       </c>
       <c r="E49">
-        <v>23.25038</v>
-      </c>
-      <c r="F49">
         <v>119.67429</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>2021期中</t>
         </is>
@@ -1994,18 +1749,13 @@
           <t>西吉嶼</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>西吉嶼</t>
-        </is>
+      <c r="D50">
+        <v>23.24467</v>
       </c>
       <c r="E50">
-        <v>23.24467</v>
-      </c>
-      <c r="F50">
         <v>119.61939</v>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>2021期中</t>
         </is>
@@ -2027,18 +1777,13 @@
           <t>七美</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>七美</t>
-        </is>
+      <c r="D51">
+        <v>23.19146</v>
       </c>
       <c r="E51">
-        <v>23.19146</v>
-      </c>
-      <c r="F51">
         <v>119.43095</v>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -2060,18 +1805,13 @@
           <t>花瓶石</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>花瓶石</t>
-        </is>
+      <c r="D52">
+        <v>22.356</v>
       </c>
       <c r="E52">
-        <v>22.356</v>
-      </c>
-      <c r="F52">
         <v>120.38</v>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>已採樣，未納入分析</t>
         </is>
@@ -2093,18 +1833,13 @@
           <t>美人洞</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>美人洞</t>
-        </is>
+      <c r="D53">
+        <v>22.353</v>
       </c>
       <c r="E53">
-        <v>22.353</v>
-      </c>
-      <c r="F53">
         <v>120.37</v>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>2022期中</t>
         </is>
@@ -2126,18 +1861,13 @@
           <t>中澳沙灘</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>中澳沙灘</t>
-        </is>
+      <c r="D54">
+        <v>22.352</v>
       </c>
       <c r="E54">
-        <v>22.352</v>
-      </c>
-      <c r="F54">
         <v>120.387</v>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>2022期中</t>
         </is>
@@ -2159,18 +1889,13 @@
           <t>肚仔坪</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>肚仔坪</t>
-        </is>
+      <c r="D55">
+        <v>22.35</v>
       </c>
       <c r="E55">
-        <v>22.35</v>
-      </c>
-      <c r="F55">
         <v>120.364</v>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>已採樣，未納入分析</t>
         </is>
@@ -2192,18 +1917,13 @@
           <t>龍蝦洞</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>龍蝦洞</t>
-        </is>
+      <c r="D56">
+        <v>22.345</v>
       </c>
       <c r="E56">
-        <v>22.345</v>
-      </c>
-      <c r="F56">
         <v>120.389</v>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>2022期末</t>
         </is>
@@ -2225,18 +1945,13 @@
           <t>杉福</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>杉福</t>
-        </is>
+      <c r="D57">
+        <v>22.341</v>
       </c>
       <c r="E57">
-        <v>22.341</v>
-      </c>
-      <c r="F57">
         <v>120.361</v>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>2022期中</t>
         </is>
@@ -2258,18 +1973,13 @@
           <t>烏鬼洞</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>烏鬼洞</t>
-        </is>
+      <c r="D58">
+        <v>22.331</v>
       </c>
       <c r="E58">
-        <v>22.331</v>
-      </c>
-      <c r="F58">
         <v>120.355</v>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>2022期中</t>
         </is>
@@ -2291,18 +2001,13 @@
           <t>大福</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>大福</t>
-        </is>
+      <c r="D59">
+        <v>22.33</v>
       </c>
       <c r="E59">
-        <v>22.33</v>
-      </c>
-      <c r="F59">
         <v>120.371</v>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>2022期中</t>
         </is>
@@ -2324,18 +2029,13 @@
           <t>厚石</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>厚石</t>
-        </is>
+      <c r="D60">
+        <v>22.324</v>
       </c>
       <c r="E60">
-        <v>22.324</v>
-      </c>
-      <c r="F60">
         <v>120.367</v>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>2022期中</t>
         </is>
@@ -2357,18 +2057,13 @@
           <t>大潭</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>大潭</t>
-        </is>
+      <c r="D61">
+        <v>25.19028</v>
       </c>
       <c r="E61">
-        <v>25.19028</v>
-      </c>
-      <c r="F61">
         <v>121.1686</v>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -2390,18 +2085,13 @@
           <t>觀新</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>觀新</t>
-        </is>
+      <c r="D62">
+        <v>25.10278</v>
       </c>
       <c r="E62">
-        <v>25.10278</v>
-      </c>
-      <c r="F62">
         <v>121.1861</v>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>2021期末</t>
         </is>
@@ -2423,18 +2113,13 @@
           <t>跳石</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>跳石</t>
-        </is>
+      <c r="D63">
+        <v>21.953376</v>
       </c>
       <c r="E63">
-        <v>21.953376</v>
-      </c>
-      <c r="F63">
         <v>120.769226</v>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>已採樣，未納入分析</t>
         </is>
@@ -2456,18 +2141,13 @@
           <t>香蕉灣 I</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>香蕉灣 I</t>
-        </is>
+      <c r="D64">
+        <v>21.924626</v>
       </c>
       <c r="E64">
-        <v>21.924626</v>
-      </c>
-      <c r="F64">
         <v>120.829325</v>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>已採樣，未納入分析</t>
         </is>
@@ -2489,18 +2169,13 @@
           <t>佳樂水</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>佳樂水</t>
-        </is>
+      <c r="D65">
+        <v>21.99726</v>
       </c>
       <c r="E65">
-        <v>21.99726</v>
-      </c>
-      <c r="F65">
         <v>120.873188</v>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>已採樣，未納入分析</t>
         </is>
@@ -2522,18 +2197,13 @@
           <t>萬里桐</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>萬里桐</t>
-        </is>
+      <c r="D66">
+        <v>21.99535</v>
       </c>
       <c r="E66">
-        <v>21.99535</v>
-      </c>
-      <c r="F66">
         <v>120.700647</v>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>2022期末</t>
         </is>
@@ -2555,18 +2225,13 @@
           <t>紅柴</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>紅柴</t>
-        </is>
+      <c r="D67">
+        <v>21.976484</v>
       </c>
       <c r="E67">
-        <v>21.976484</v>
-      </c>
-      <c r="F67">
         <v>120.714387</v>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>已採樣，未納入分析</t>
         </is>
@@ -2588,18 +2253,13 @@
           <t>紅柴坑</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>紅柴坑</t>
-        </is>
+      <c r="D68">
+        <v>21.965385</v>
       </c>
       <c r="E68">
-        <v>21.965385</v>
-      </c>
-      <c r="F68">
         <v>120.711864</v>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>2022期末</t>
         </is>
@@ -2621,18 +2281,13 @@
           <t>後壁湖</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>後壁湖</t>
-        </is>
+      <c r="D69">
+        <v>21.942488</v>
       </c>
       <c r="E69">
-        <v>21.942488</v>
-      </c>
-      <c r="F69">
         <v>120.752944</v>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>已採樣，未納入分析</t>
         </is>
@@ -2654,18 +2309,13 @@
           <t>頂白砂</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>頂白砂</t>
-        </is>
+      <c r="D70">
+        <v>21.942043</v>
       </c>
       <c r="E70">
-        <v>21.942043</v>
-      </c>
-      <c r="F70">
         <v>120.709931</v>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>已採樣，未納入分析</t>
         </is>
@@ -2687,18 +2337,13 @@
           <t>電廠出水口</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>電廠出水口</t>
-        </is>
+      <c r="D71">
+        <v>21.930777</v>
       </c>
       <c r="E71">
-        <v>21.930777</v>
-      </c>
-      <c r="F71">
         <v>120.744966</v>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>已採樣，未納入分析</t>
         </is>
@@ -2720,18 +2365,13 @@
           <t>雷打石</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>雷打石</t>
-        </is>
+      <c r="D72">
+        <v>21.929179</v>
       </c>
       <c r="E72">
-        <v>21.929179</v>
-      </c>
-      <c r="F72">
         <v>120.744357</v>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>已採樣，未納入分析</t>
         </is>
@@ -2753,18 +2393,13 @@
           <t>小灣</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>小灣</t>
-        </is>
+      <c r="D73">
+        <v>21.936339</v>
       </c>
       <c r="E73">
-        <v>21.936339</v>
-      </c>
-      <c r="F73">
         <v>120.8059</v>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>已採樣，未納入分析</t>
         </is>
@@ -2786,18 +2421,13 @@
           <t>香蕉灣 II</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>香蕉灣 II</t>
-        </is>
+      <c r="D74">
+        <v>21.923168</v>
       </c>
       <c r="E74">
-        <v>21.923168</v>
-      </c>
-      <c r="F74">
         <v>120.831831</v>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>已採樣，未納入分析</t>
         </is>
@@ -2819,18 +2449,13 @@
           <t>貓鼻頭</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>貓鼻頭</t>
-        </is>
+      <c r="D75">
+        <v>21.918296</v>
       </c>
       <c r="E75">
-        <v>21.918296</v>
-      </c>
-      <c r="F75">
         <v>120.73564</v>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>2022期末</t>
         </is>
@@ -2852,18 +2477,13 @@
           <t>龍坑生態保護區</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>龍坑生態保護區</t>
-        </is>
+      <c r="D76">
+        <v>21.907241</v>
       </c>
       <c r="E76">
-        <v>21.907241</v>
-      </c>
-      <c r="F76">
         <v>120.862468</v>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>已採樣，未納入分析</t>
         </is>
@@ -2885,18 +2505,13 @@
           <t>七星岩</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>七星岩</t>
-        </is>
+      <c r="D77">
+        <v>21.759668</v>
       </c>
       <c r="E77">
-        <v>21.759668</v>
-      </c>
-      <c r="F77">
         <v>120.826478</v>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>已採樣，未納入分析</t>
         </is>
